--- a/data/processed/index_optimism.xlsx
+++ b/data/processed/index_optimism.xlsx
@@ -475,7 +475,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>36535.08333333334</v>
+        <v>36524</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>36560.08333333334</v>
+        <v>36558</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>36571.125</v>
+        <v>36579</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>36615.125</v>
+        <v>36614</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>36650.125</v>
+        <v>36642</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>36686.125</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>36713.125</v>
+        <v>36704</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>36739.125</v>
+        <v>36733</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>36781.125</v>
+        <v>36768</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>36803.125</v>
+        <v>36796</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>36831.08333333334</v>
+        <v>36824</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>36867.08333333334</v>
+        <v>36859</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>36901.08333333334</v>
+        <v>36887</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>36943.125</v>
+        <v>36915</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>36978.125</v>
+        <v>36943</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>36979.125</v>
+        <v>36978</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>37008.125</v>
+        <v>37006</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>37043.125</v>
+        <v>37041</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>37075.125</v>
+        <v>37069</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>37102.125</v>
+        <v>37097</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>37137.125</v>
+        <v>37132</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>37162.125</v>
+        <v>37160</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>37194.08333333334</v>
+        <v>37188</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>37228.08333333334</v>
+        <v>37223</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>37259.08333333334</v>
+        <v>37251</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>37291.08333333334</v>
+        <v>37286</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>37319.125</v>
+        <v>37314</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>37347.125</v>
+        <v>37342</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>37375.125</v>
+        <v>37370</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>37410.125</v>
+        <v>37405</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>37435.125</v>
+        <v>37433</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>37463.125</v>
+        <v>37461</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>37498.125</v>
+        <v>37496</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>37526.125</v>
+        <v>37524</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>37547.125</v>
+        <v>37545</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>37561.08333333334</v>
+        <v>37559</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>37589.08333333334</v>
+        <v>37587</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>37617.08333333334</v>
+        <v>37614</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>37651.08333333334</v>
+        <v>37650</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>37678.125</v>
+        <v>37678</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>37707.125</v>
+        <v>37706</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>37741.125</v>
+        <v>37741</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>37771.125</v>
+        <v>37769</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>37799.125</v>
+        <v>37799</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>37833.125</v>
+        <v>37833</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>37862.125</v>
+        <v>37861</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>37889.125</v>
+        <v>37888</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>37925.08333333334</v>
+        <v>37924</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>37953.08333333334</v>
+        <v>37952</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>37979.08333333334</v>
+        <v>37979</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>38016.08333333334</v>
+        <v>38014</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>38044.125</v>
+        <v>38043</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>38076.125</v>
+        <v>38071</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>38103.125</v>
+        <v>38099</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>38135.125</v>
+        <v>38134</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>38163.125</v>
+        <v>38162</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>38197.125</v>
+        <v>38197</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>38217.125</v>
+        <v>38225</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>38260.125</v>
+        <v>38253</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>38288.08333333334</v>
+        <v>38288</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>38292.08333333334</v>
+        <v>38316</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>38322.08333333334</v>
+        <v>38344</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>38353.08333333334</v>
+        <v>38379</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>38384.08333333334</v>
+        <v>38407</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>38412.125</v>
+        <v>38435</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>38471.125</v>
+        <v>38470</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>38473.125</v>
+        <v>38499</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>38504.125</v>
+        <v>38526</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>38534.125</v>
+        <v>38561</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>38565.125</v>
+        <v>38589</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>38596.125</v>
+        <v>38617</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>38626.125</v>
+        <v>38652</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>38657.08333333334</v>
+        <v>38687</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>38687.08333333334</v>
+        <v>38708</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>38718.08333333334</v>
+        <v>38743</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>38777.125</v>
+        <v>38792</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>38808.125</v>
+        <v>38834</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>38868.125</v>
+        <v>38876</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>38899.125</v>
+        <v>38925</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>38930.125</v>
+        <v>38968</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>38991.125</v>
+        <v>39016</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>39022.08333333334</v>
+        <v>39058</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>39083.08333333334</v>
+        <v>39114</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>39142.125</v>
+        <v>39156</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>39173.125</v>
+        <v>39198</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>39234.125</v>
+        <v>39247</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>39264.125</v>
+        <v>39289</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>39326.125</v>
+        <v>39338</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>39356.125</v>
+        <v>39380</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>39417.08333333334</v>
+        <v>39429</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>39448.08333333334</v>
+        <v>39478</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>39508.125</v>
+        <v>39520</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>39554.125</v>
+        <v>39562</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>39600.125</v>
+        <v>39611</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>39652.125</v>
+        <v>39660</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>39701.125</v>
+        <v>39709</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>39750.08333333334</v>
+        <v>39758</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>39783.08333333334</v>
+        <v>39800</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>39814.08333333334</v>
+        <v>39842</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>39873.125</v>
+        <v>39891</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>39932.125</v>
+        <v>39940</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>39965.125</v>
+        <v>39982</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>39995.125</v>
+        <v>40024</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>40057.63769675926</v>
+        <v>40066</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>40106.77097222222</v>
+        <v>40115</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>40153.53515046297</v>
+        <v>40164</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>40187.77307870371</v>
+        <v>40213</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>40256.90980324074</v>
+        <v>40262</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>40280.77208333334</v>
+        <v>40304</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>40351.8047337963</v>
+        <v>40346</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>40364.59837962963</v>
+        <v>40388</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>40445.58465277778</v>
+        <v>40430</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>40462.88775462963</v>
+        <v>40479</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>40539.74549768519</v>
+        <v>40528</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>40551.72954861111</v>
+        <v>40570</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>40624.59274305555</v>
+        <v>40612</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>40638.62409722222</v>
+        <v>40661</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>40715.59922453704</v>
+        <v>40710</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>40729.61886574074</v>
+        <v>40752</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>40769.92262731482</v>
+        <v>40794</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>40824.86472222222</v>
+        <v>40843</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>40863.54011574074</v>
+        <v>40885</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>40915.47509259259</v>
+        <v>40934</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>40991.83993055556</v>
+        <v>40983</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>41006.82640046296</v>
+        <v>41025</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>41047.89047453704</v>
+        <v>41068</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>41116.64232638889</v>
+        <v>41109</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>41135.92011574074</v>
+        <v>41158</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>41207.8783912037</v>
+        <v>41200</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>41255.56703703704</v>
+        <v>41249</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>41290.08333333334</v>
+        <v>41298</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>41355.95972222222</v>
+        <v>41347</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>41370.61784722222</v>
+        <v>41389</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>41423.125</v>
+        <v>41431</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>41480.75197916666</v>
+        <v>41473</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>41499.55001157407</v>
+        <v>41522</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>41571.47010416666</v>
+        <v>41564</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>41591.5340625</v>
+        <v>41613</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>41670.08333333334</v>
+        <v>41662</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>41683.47553240741</v>
+        <v>41704</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>41744.89211805556</v>
+        <v>41739</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>41772.48472222222</v>
+        <v>41795</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>41850.90104166666</v>
+        <v>41844</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>41898.82677083334</v>
+        <v>41893</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>41924.49180555555</v>
+        <v>41949</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>41990.80542824074</v>
+        <v>41984</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>42008.81946759259</v>
+        <v>42033</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>42082.62939814815</v>
+        <v>42075</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>42108.57741898148</v>
+        <v>42131</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>42172.74506944444</v>
+        <v>42166</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>42229.94142361111</v>
+        <v>42222</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>42263.82626157408</v>
+        <v>42257</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>42282.89880787037</v>
+        <v>42306</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>42333.08333333334</v>
+        <v>42341</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>42372.72121527778</v>
+        <v>42397</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>42447.77527777778</v>
+        <v>42439</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>42501.62474537037</v>
+        <v>42495</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>42542.88980324074</v>
+        <v>42537</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>42552.84964120371</v>
+        <v>42577</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>42613.125</v>
+        <v>42619</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>42668.92143518518</v>
+        <v>42668</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>42680.8774537037</v>
+        <v>42710</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>42752.86366898148</v>
+        <v>42752</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>42768.8247337963</v>
+        <v>42796</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>42843.888125</v>
+        <v>42843</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>42861.87266203704</v>
+        <v>42892</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>42917.8584837963</v>
+        <v>42948</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>42991.54032407407</v>
+        <v>42990</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43039.81548611111</v>
+        <v>43039</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43081.43953703704</v>
+        <v>43081</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43146.08333333334</v>
+        <v>43146</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43186.125</v>
+        <v>43186</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43236.125</v>
+        <v>43242</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43271.125</v>
+        <v>43277</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43313.125</v>
+        <v>43319</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43362.125</v>
+        <v>43368</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43404.125</v>
+        <v>43410</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43446.08333333334</v>
+        <v>43452</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43502.08333333334</v>
+        <v>43508</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43545.125</v>
+        <v>43550</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43593.125</v>
+        <v>43599</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43635.125</v>
+        <v>43641</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43677.125</v>
+        <v>43683</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43726.125</v>
+        <v>43732</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43768.125</v>
+        <v>43774</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43810.125</v>
+        <v>43816</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43866.125</v>
+        <v>43872</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43908.125</v>
+        <v>43913</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43957.70833333334</v>
+        <v>43963</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43999.73263888889</v>
+        <v>44005</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44048.125</v>
+        <v>44054</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44090.125</v>
+        <v>44096</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44132.125</v>
+        <v>44138</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44174.125</v>
+        <v>44180</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44216.125</v>
+        <v>44222</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44272.125</v>
+        <v>44278</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44321.125</v>
+        <v>44327</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44363.125</v>
+        <v>44369</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44412.125</v>
+        <v>44418</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44461.125</v>
+        <v>44467</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44496.125</v>
+        <v>44503</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44538.125</v>
+        <v>44544</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44594.125</v>
+        <v>44600</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44636.125</v>
+        <v>44642</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44685.125</v>
+        <v>44691</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44727.125</v>
+        <v>44733</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44776.125</v>
+        <v>44782</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44825.125</v>
+        <v>44831</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44860.125</v>
+        <v>44866</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44902.125</v>
+        <v>44908</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44958.125</v>
+        <v>44964</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45007.125</v>
+        <v>45013</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45049.125</v>
+        <v>45055</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45098.125</v>
+        <v>45104</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45140.125</v>
+        <v>45146</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45189.125</v>
+        <v>45195</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45231.125</v>
+        <v>45237</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45273.125</v>
+        <v>45279</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45322.125</v>
+        <v>45328</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45371.125</v>
+        <v>45377</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45420.125</v>
+        <v>45426</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45462.125</v>
+        <v>45468</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45504.125</v>
+        <v>45510</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45553.125</v>
+        <v>45559</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45602.125</v>
+        <v>45610</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45637.125</v>
+        <v>45643</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45686.125</v>
+        <v>45692</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45735.125</v>
+        <v>45741</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45784.125</v>
+        <v>45790</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45826.125</v>
+        <v>45832</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
